--- a/files/公告競賽順序.xlsx
+++ b/files/公告競賽順序.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目錄" sheetId="25" r:id="rId1"/>
@@ -19603,9 +19603,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -19618,6 +19615,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -19627,11 +19629,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -19950,78 +19950,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>1252</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="13.8">
-      <c r="A2" s="23">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>1254</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>1255</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>1256</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>1257</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>1259</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>1261</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="25" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.8">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>1258</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>1260</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>1262</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>1266</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21865,7 +21865,7 @@
   </sheetPr>
   <dimension ref="A1:E990"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -23807,7 +23807,7 @@
   </sheetPr>
   <dimension ref="A1:E992"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -25750,11 +25750,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="31" t="s">
         <v>1253</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -26941,7 +26941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C993"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
@@ -28973,7 +28973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A196" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -31514,7 +31514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
@@ -33258,7 +33258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
@@ -35372,8 +35372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C988"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="15" customHeight="1"/>
@@ -36025,9 +36025,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A75" s="3">
-        <v>30</v>
-      </c>
+      <c r="A75" s="3"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
         <v>274</v>
@@ -36035,7 +36033,7 @@
     </row>
     <row r="76" spans="1:3" ht="16.5" customHeight="1">
       <c r="A76" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>273</v>
@@ -36060,7 +36058,7 @@
     </row>
     <row r="79" spans="1:3" ht="16.5" customHeight="1">
       <c r="A79" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>269</v>
@@ -36085,7 +36083,7 @@
     </row>
     <row r="82" spans="1:3" ht="16.5" customHeight="1">
       <c r="A82" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>265</v>
@@ -36110,7 +36108,7 @@
     </row>
     <row r="85" spans="1:3" ht="16.5" customHeight="1">
       <c r="A85" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>262</v>
@@ -36135,7 +36133,7 @@
     </row>
     <row r="88" spans="1:3" ht="16.5" customHeight="1">
       <c r="A88" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>258</v>
@@ -36153,7 +36151,7 @@
     </row>
     <row r="90" spans="1:3" ht="16.5" customHeight="1">
       <c r="A90" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>255</v>
@@ -36178,7 +36176,7 @@
     </row>
     <row r="93" spans="1:3" ht="16.5" customHeight="1">
       <c r="A93" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>251</v>
@@ -36189,7 +36187,7 @@
     </row>
     <row r="94" spans="1:3" ht="16.5" customHeight="1">
       <c r="A94" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>249</v>
@@ -36207,7 +36205,7 @@
     </row>
     <row r="96" spans="1:3" ht="16.5" customHeight="1">
       <c r="A96" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>246</v>
@@ -36218,7 +36216,7 @@
     </row>
     <row r="97" spans="1:3" ht="16.5" customHeight="1">
       <c r="A97" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>244</v>
@@ -36243,7 +36241,7 @@
     </row>
     <row r="100" spans="1:3" ht="16.5" customHeight="1">
       <c r="A100" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>161</v>
@@ -36261,7 +36259,7 @@
     </row>
     <row r="102" spans="1:3" ht="16.5" customHeight="1">
       <c r="A102" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>238</v>
@@ -36286,7 +36284,7 @@
     </row>
     <row r="105" spans="1:3" ht="16.5" customHeight="1">
       <c r="A105" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>234</v>
@@ -36304,7 +36302,7 @@
     </row>
     <row r="107" spans="1:3" ht="16.5" customHeight="1">
       <c r="A107" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>231</v>
@@ -36322,7 +36320,7 @@
     </row>
     <row r="109" spans="1:3" ht="16.5" customHeight="1">
       <c r="A109" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>228</v>
@@ -36354,7 +36352,7 @@
     </row>
     <row r="113" spans="1:3" ht="16.5" customHeight="1">
       <c r="A113" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>223</v>
@@ -36372,7 +36370,7 @@
     </row>
     <row r="115" spans="1:3" ht="16.5" customHeight="1">
       <c r="A115" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>220</v>
@@ -36397,7 +36395,7 @@
     </row>
     <row r="118" spans="1:3" ht="16.5" customHeight="1">
       <c r="A118" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>216</v>
@@ -36422,7 +36420,7 @@
     </row>
     <row r="121" spans="1:3" ht="16.5" customHeight="1">
       <c r="A121" s="3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>212</v>
@@ -36440,7 +36438,7 @@
     </row>
     <row r="123" spans="1:3" ht="16.5" customHeight="1">
       <c r="A123" s="3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>209</v>
@@ -36465,7 +36463,7 @@
     </row>
     <row r="126" spans="1:3" ht="16.5" customHeight="1">
       <c r="A126" s="3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>205</v>
@@ -36490,7 +36488,7 @@
     </row>
     <row r="129" spans="1:3" ht="16.5" customHeight="1">
       <c r="A129" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>201</v>
@@ -36508,7 +36506,7 @@
     </row>
     <row r="131" spans="1:3" ht="16.5" customHeight="1">
       <c r="A131" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>198</v>
@@ -36519,7 +36517,7 @@
     </row>
     <row r="132" spans="1:3" ht="16.5" customHeight="1">
       <c r="A132" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>196</v>
@@ -36530,7 +36528,7 @@
     </row>
     <row r="133" spans="1:3" ht="16.5" customHeight="1">
       <c r="A133" s="3">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>194</v>
@@ -36548,7 +36546,7 @@
     </row>
     <row r="135" spans="1:3" ht="16.5" customHeight="1">
       <c r="A135" s="3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>191</v>
